--- a/src/test/java/testdata/expected_data.xlsx
+++ b/src/test/java/testdata/expected_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_NEW_21TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(8TCs)/src/test/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_9TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(9TCs)/src/test/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DFF05-2FBC-5342-8A3C-400495EAB286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D913D42-F26B-8449-8D57-C5EF5E26CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="10" activeTab="15" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="7" activeTab="9" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
   </bookViews>
   <sheets>
     <sheet name="healthApp" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,17 @@
     <sheet name="NewSSUPatientRegistrationPopup" sheetId="7" r:id="rId7"/>
     <sheet name="allExpectedCountryOptions" sheetId="8" r:id="rId8"/>
     <sheet name="ProcurementModule" sheetId="9" r:id="rId9"/>
-    <sheet name="operationTheatreModuleStringVal" sheetId="10" r:id="rId10"/>
-    <sheet name="addExternalReferralPageInfo" sheetId="11" r:id="rId11"/>
-    <sheet name="PageTitle" sheetId="12" r:id="rId12"/>
-    <sheet name="percentageValue" sheetId="13" r:id="rId13"/>
-    <sheet name="socialServiceModuleStringValue" sheetId="14" r:id="rId14"/>
-    <sheet name="NewSSUPatientRegistrationForm" sheetId="15" r:id="rId15"/>
-    <sheet name="operationTheatreModule" sheetId="16" r:id="rId16"/>
-    <sheet name="DoctorName" sheetId="17" r:id="rId17"/>
-    <sheet name="TextFieldDatas" sheetId="18" r:id="rId18"/>
-    <sheet name="DoctotModule" sheetId="19" r:id="rId19"/>
-    <sheet name="appointmentModule" sheetId="20" r:id="rId20"/>
-    <sheet name="patientModule" sheetId="21" r:id="rId21"/>
+    <sheet name="addExternalReferralPageInfo" sheetId="11" r:id="rId10"/>
+    <sheet name="PageTitle" sheetId="12" r:id="rId11"/>
+    <sheet name="percentageValue" sheetId="13" r:id="rId12"/>
+    <sheet name="socialServiceModuleStringValue" sheetId="14" r:id="rId13"/>
+    <sheet name="NewSSUPatientRegistrationForm" sheetId="15" r:id="rId14"/>
+    <sheet name="operationTheatreModule" sheetId="16" r:id="rId15"/>
+    <sheet name="DoctorName" sheetId="17" r:id="rId16"/>
+    <sheet name="TextFieldDatas" sheetId="18" r:id="rId17"/>
+    <sheet name="DoctotModule" sheetId="19" r:id="rId18"/>
+    <sheet name="appointmentModule" sheetId="20" r:id="rId19"/>
+    <sheet name="patientModule" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="371">
   <si>
     <t>dasboardTitle</t>
   </si>
@@ -866,15 +865,9 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>surgenNameValue1</t>
-  </si>
-  <si>
     <t>Dr. pooja Mishra</t>
   </si>
   <si>
-    <t>surgenNameValue2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dr. pooja Mishra  </t>
   </si>
   <si>
@@ -1167,6 +1160,15 @@
   </si>
   <si>
     <t>remarksValue</t>
+  </si>
+  <si>
+    <t>surgenName</t>
+  </si>
+  <si>
+    <t>Dr. p</t>
+  </si>
+  <si>
+    <t>surgenNameValueOnButton</t>
   </si>
 </sst>
 </file>
@@ -1626,103 +1628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373FD48-037B-9C40-8A25-847414E0295F}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView zoomScale="210" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8CF3EC-1D4E-304F-9249-24120B641F5D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -1742,15 +1652,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1">
         <v>9124564060</v>
@@ -1758,18 +1668,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDE8D13-D3E5-084B-A5B8-753E780A51EF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1794,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1802,26 +1712,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E14D1-C543-9C4B-AD37-7B7B38B1A1A7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1845,7 +1755,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>10</v>
@@ -1853,10 +1763,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91148E8C-1845-4147-9C63-A7ED0E35B264}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1880,31 +1790,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>258</v>
@@ -1915,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBC200D-68D4-9249-8161-75649AA69985}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1963,26 +1873,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1990,12 +1900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A435EB-5F6B-124F-93F7-513C97FCD52C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" zoomScale="174" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2006,90 +1916,163 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2648C716-BB3A-0844-B5E9-7E5043F31388}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2105,10 +2088,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F64412-EFA7-BB4B-8897-375C5DAD4366}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2132,18 +2115,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C49B96-FDA8-7B45-89C6-D13817F8607E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2172,26 +2155,150 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C9243-407B-CE4F-996B-0D7979BCAD9E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2228,130 +2335,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C9243-407B-CE4F-996B-0D7979BCAD9E}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113A775C-E35F-7840-B259-B6A77681B93F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2368,23 +2351,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>258</v>
@@ -2392,66 +2375,66 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,23 +2442,23 @@
         <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testdata/expected_data.xlsx
+++ b/src/test/java/testdata/expected_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_9TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(9TCs)/src/test/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_9TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(9TCs)/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D913D42-F26B-8449-8D57-C5EF5E26CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D5621-00C3-534C-B339-420FCE474380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="7" activeTab="9" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="8" activeTab="14" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
   </bookViews>
   <sheets>
     <sheet name="healthApp" sheetId="1" r:id="rId1"/>
@@ -1165,10 +1165,10 @@
     <t>surgenName</t>
   </si>
   <si>
-    <t>Dr. p</t>
-  </si>
-  <si>
     <t>surgenNameValueOnButton</t>
+  </si>
+  <si>
+    <t>Dr. pooja</t>
   </si>
 </sst>
 </file>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8CF3EC-1D4E-304F-9249-24120B641F5D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A435EB-5F6B-124F-93F7-513C97FCD52C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="174" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,12 +2055,12 @@
         <v>368</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>270</v>
